--- a/biology/Botanique/Maison_forestière/Maison_forestière.xlsx
+++ b/biology/Botanique/Maison_forestière/Maison_forestière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maison_foresti%C3%A8re</t>
+          <t>Maison_forestière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une maison forestière est un logement de fonction destiné à accueillir un ou plusieurs gardes forestiers et généralement situé en bordure de forêt. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maison_foresti%C3%A8re</t>
+          <t>Maison_forestière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">En général
-En France, l'Office national des forêts (ONF) gère environ 2 000 maisons forestières liées à des forêts domaniales, qui relèvent de la propriété de l'État. Il existe deux statuts pour ces maisons : certaines appartiennent à l'ONF et sont généralement situées hors des massifs forestiers concernés ; les autres appartiennent à l'État et l'ONF en dispose par le biais d'un bail emphytéotique. 
-Depuis le début des années 2000, l'ONF est amenée à vendre les maisons forestières dont elle n'a plus l'usage afin d'obtenir des ressources financières. C'est particulièrement le cas des maisons situées en lisière de forêt, dont la cession n'aboutit pas à créer d'enclave dans le domaine forestier[1],[2].
-Exemples
-La forêt du Gâvre (Loire-Atlantique), d'une superficie de 45 km² (4 500 hectares), est pourvue de cinq maisons forestières.
-Les maisons forestières des Landes de Gascogne
-Les maisons forestières originelles du littoral landais (départements des Landes et de la Gironde) ont été bâties dans les années 1863-1866. Elles sont situées en général dans une dépression interdunale (lette) à un ou deux kilomètres de l'océan, au cœur du domaine des dunes, après que celui-ci, progressivement couvert de pins maritimes à partir des années 1810, est devenu forestier sous l'égide d'abord des Ponts et Chaussées, puis des Eaux et Forêts et propriété de l'État[pas clair]. 
-Ces maisons restent pendant plus d'un demi-siècle les seules habitations présentes dans ce nouvel espace forestier[pas clair]. Les gardes forestiers les aménagent pour y vivre avec le plus d'autonomie possible. Ils y resteront jusqu'au début des années 1970[3].
+          <t>En général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, l'Office national des forêts (ONF) gère environ 2 000 maisons forestières liées à des forêts domaniales, qui relèvent de la propriété de l'État. Il existe deux statuts pour ces maisons : certaines appartiennent à l'ONF et sont généralement situées hors des massifs forestiers concernés ; les autres appartiennent à l'État et l'ONF en dispose par le biais d'un bail emphytéotique. 
+Depuis le début des années 2000, l'ONF est amenée à vendre les maisons forestières dont elle n'a plus l'usage afin d'obtenir des ressources financières. C'est particulièrement le cas des maisons situées en lisière de forêt, dont la cession n'aboutit pas à créer d'enclave dans le domaine forestier,.
 </t>
         </is>
       </c>
@@ -531,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maison_foresti%C3%A8re</t>
+          <t>Maison_forestière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +558,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Les maisons forestières en France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt du Gâvre (Loire-Atlantique), d'une superficie de 45 km² (4 500 hectares), est pourvue de cinq maisons forestières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Maison_forestière</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maison_foresti%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les maisons forestières en France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les maisons forestières des Landes de Gascogne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les maisons forestières originelles du littoral landais (départements des Landes et de la Gironde) ont été bâties dans les années 1863-1866. Elles sont situées en général dans une dépression interdunale (lette) à un ou deux kilomètres de l'océan, au cœur du domaine des dunes, après que celui-ci, progressivement couvert de pins maritimes à partir des années 1810, est devenu forestier sous l'égide d'abord des Ponts et Chaussées, puis des Eaux et Forêts et propriété de l'État[pas clair]. 
+Ces maisons restent pendant plus d'un demi-siècle les seules habitations présentes dans ce nouvel espace forestier[pas clair]. Les gardes forestiers les aménagent pour y vivre avec le plus d'autonomie possible. Ils y resteront jusqu'au début des années 1970.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Maison_forestière</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maison_foresti%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Dans d'autres pays</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pays anglo-saxons : Forester's lodges
 Pays germaniques et néerlandophones : Forsthaus
